--- a/slime_tracker_bom.xlsx
+++ b/slime_tracker_bom.xlsx
@@ -517,7 +517,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C456012</t>
+    <t>C5438410</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/slime_tracker_bom.xlsx
+++ b/slime_tracker_bom.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DP201909005\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348522B3-AAE5-4828-9688-DA38352F6667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="148">
   <si>
     <t>Reference</t>
   </si>
@@ -518,14 +519,28 @@
   </si>
   <si>
     <t>C5438410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C22624</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +572,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -581,15 +602,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,9 +632,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준_Sheet1_1" xfId="2" xr:uid="{BE2C5CA7-66E5-4180-947F-32F3379B0153}"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -888,27 +916,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IU42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.796875" customWidth="1"/>
-    <col min="9" max="9" width="58.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="58.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -957,7 +985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -977,7 +1005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -997,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1017,7 +1045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1037,7 +1065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1057,7 +1085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1097,7 +1125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1117,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1137,7 +1165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1157,7 +1185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1177,434 +1205,681 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:255" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
+      <c r="BM14" s="6"/>
+      <c r="BN14" s="6"/>
+      <c r="BO14" s="6"/>
+      <c r="BP14" s="6"/>
+      <c r="BQ14" s="6"/>
+      <c r="BR14" s="6"/>
+      <c r="BS14" s="6"/>
+      <c r="BT14" s="6"/>
+      <c r="BU14" s="6"/>
+      <c r="BV14" s="6"/>
+      <c r="BW14" s="6"/>
+      <c r="BX14" s="6"/>
+      <c r="BY14" s="6"/>
+      <c r="BZ14" s="6"/>
+      <c r="CA14" s="6"/>
+      <c r="CB14" s="6"/>
+      <c r="CC14" s="6"/>
+      <c r="CD14" s="6"/>
+      <c r="CE14" s="6"/>
+      <c r="CF14" s="6"/>
+      <c r="CG14" s="6"/>
+      <c r="CH14" s="6"/>
+      <c r="CI14" s="6"/>
+      <c r="CJ14" s="6"/>
+      <c r="CK14" s="6"/>
+      <c r="CL14" s="6"/>
+      <c r="CM14" s="6"/>
+      <c r="CN14" s="6"/>
+      <c r="CO14" s="6"/>
+      <c r="CP14" s="6"/>
+      <c r="CQ14" s="6"/>
+      <c r="CR14" s="6"/>
+      <c r="CS14" s="6"/>
+      <c r="CT14" s="6"/>
+      <c r="CU14" s="6"/>
+      <c r="CV14" s="6"/>
+      <c r="CW14" s="6"/>
+      <c r="CX14" s="6"/>
+      <c r="CY14" s="6"/>
+      <c r="CZ14" s="6"/>
+      <c r="DA14" s="6"/>
+      <c r="DB14" s="6"/>
+      <c r="DC14" s="6"/>
+      <c r="DD14" s="6"/>
+      <c r="DE14" s="6"/>
+      <c r="DF14" s="6"/>
+      <c r="DG14" s="6"/>
+      <c r="DH14" s="6"/>
+      <c r="DI14" s="6"/>
+      <c r="DJ14" s="6"/>
+      <c r="DK14" s="6"/>
+      <c r="DL14" s="6"/>
+      <c r="DM14" s="6"/>
+      <c r="DN14" s="6"/>
+      <c r="DO14" s="6"/>
+      <c r="DP14" s="6"/>
+      <c r="DQ14" s="6"/>
+      <c r="DR14" s="6"/>
+      <c r="DS14" s="6"/>
+      <c r="DT14" s="6"/>
+      <c r="DU14" s="6"/>
+      <c r="DV14" s="6"/>
+      <c r="DW14" s="6"/>
+      <c r="DX14" s="6"/>
+      <c r="DY14" s="6"/>
+      <c r="DZ14" s="6"/>
+      <c r="EA14" s="6"/>
+      <c r="EB14" s="6"/>
+      <c r="EC14" s="6"/>
+      <c r="ED14" s="6"/>
+      <c r="EE14" s="6"/>
+      <c r="EF14" s="6"/>
+      <c r="EG14" s="6"/>
+      <c r="EH14" s="6"/>
+      <c r="EI14" s="6"/>
+      <c r="EJ14" s="6"/>
+      <c r="EK14" s="6"/>
+      <c r="EL14" s="6"/>
+      <c r="EM14" s="6"/>
+      <c r="EN14" s="6"/>
+      <c r="EO14" s="6"/>
+      <c r="EP14" s="6"/>
+      <c r="EQ14" s="6"/>
+      <c r="ER14" s="6"/>
+      <c r="ES14" s="6"/>
+      <c r="ET14" s="6"/>
+      <c r="EU14" s="6"/>
+      <c r="EV14" s="6"/>
+      <c r="EW14" s="6"/>
+      <c r="EX14" s="6"/>
+      <c r="EY14" s="6"/>
+      <c r="EZ14" s="6"/>
+      <c r="FA14" s="6"/>
+      <c r="FB14" s="6"/>
+      <c r="FC14" s="6"/>
+      <c r="FD14" s="6"/>
+      <c r="FE14" s="6"/>
+      <c r="FF14" s="6"/>
+      <c r="FG14" s="6"/>
+      <c r="FH14" s="6"/>
+      <c r="FI14" s="6"/>
+      <c r="FJ14" s="6"/>
+      <c r="FK14" s="6"/>
+      <c r="FL14" s="6"/>
+      <c r="FM14" s="6"/>
+      <c r="FN14" s="6"/>
+      <c r="FO14" s="6"/>
+      <c r="FP14" s="6"/>
+      <c r="FQ14" s="6"/>
+      <c r="FR14" s="6"/>
+      <c r="FS14" s="6"/>
+      <c r="FT14" s="6"/>
+      <c r="FU14" s="6"/>
+      <c r="FV14" s="6"/>
+      <c r="FW14" s="6"/>
+      <c r="FX14" s="6"/>
+      <c r="FY14" s="6"/>
+      <c r="FZ14" s="6"/>
+      <c r="GA14" s="6"/>
+      <c r="GB14" s="6"/>
+      <c r="GC14" s="6"/>
+      <c r="GD14" s="6"/>
+      <c r="GE14" s="6"/>
+      <c r="GF14" s="6"/>
+      <c r="GG14" s="6"/>
+      <c r="GH14" s="6"/>
+      <c r="GI14" s="6"/>
+      <c r="GJ14" s="6"/>
+      <c r="GK14" s="6"/>
+      <c r="GL14" s="6"/>
+      <c r="GM14" s="6"/>
+      <c r="GN14" s="6"/>
+      <c r="GO14" s="6"/>
+      <c r="GP14" s="6"/>
+      <c r="GQ14" s="6"/>
+      <c r="GR14" s="6"/>
+      <c r="GS14" s="6"/>
+      <c r="GT14" s="6"/>
+      <c r="GU14" s="6"/>
+      <c r="GV14" s="6"/>
+      <c r="GW14" s="6"/>
+      <c r="GX14" s="6"/>
+      <c r="GY14" s="6"/>
+      <c r="GZ14" s="6"/>
+      <c r="HA14" s="6"/>
+      <c r="HB14" s="6"/>
+      <c r="HC14" s="6"/>
+      <c r="HD14" s="6"/>
+      <c r="HE14" s="6"/>
+      <c r="HF14" s="6"/>
+      <c r="HG14" s="6"/>
+      <c r="HH14" s="6"/>
+      <c r="HI14" s="6"/>
+      <c r="HJ14" s="6"/>
+      <c r="HK14" s="6"/>
+      <c r="HL14" s="6"/>
+      <c r="HM14" s="6"/>
+      <c r="HN14" s="6"/>
+      <c r="HO14" s="6"/>
+      <c r="HP14" s="6"/>
+      <c r="HQ14" s="6"/>
+      <c r="HR14" s="6"/>
+      <c r="HS14" s="6"/>
+      <c r="HT14" s="6"/>
+      <c r="HU14" s="6"/>
+      <c r="HV14" s="6"/>
+      <c r="HW14" s="6"/>
+      <c r="HX14" s="6"/>
+      <c r="HY14" s="6"/>
+      <c r="HZ14" s="6"/>
+      <c r="IA14" s="6"/>
+      <c r="IB14" s="6"/>
+      <c r="IC14" s="6"/>
+      <c r="ID14" s="6"/>
+      <c r="IE14" s="6"/>
+      <c r="IF14" s="6"/>
+      <c r="IG14" s="6"/>
+      <c r="IH14" s="6"/>
+      <c r="II14" s="6"/>
+      <c r="IJ14" s="6"/>
+      <c r="IK14" s="6"/>
+      <c r="IL14" s="6"/>
+      <c r="IM14" s="6"/>
+      <c r="IN14" s="6"/>
+      <c r="IO14" s="6"/>
+      <c r="IP14" s="6"/>
+      <c r="IQ14" s="6"/>
+      <c r="IR14" s="6"/>
+      <c r="IS14" s="6"/>
+      <c r="IT14" s="6"/>
+      <c r="IU14" s="6"/>
+    </row>
+    <row r="15" spans="1:255" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>48</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>52</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:255" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>55</v>
       </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>61</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>65</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
+      <c r="E19" s="4"/>
       <c r="G19" t="s">
         <v>69</v>
       </c>
       <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
         <v>73</v>
       </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>75</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="G21" t="s">
         <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="G22" t="s">
         <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
         <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
         <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
         <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
         <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
         <v>76</v>
       </c>
       <c r="H28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
         <v>101</v>
       </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>102</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>103</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>104</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>105</v>
       </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>106</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>107</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>76</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>108</v>
       </c>
-      <c r="I30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>109</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>110</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>111</v>
       </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
         <v>62</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>112</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>113</v>
-      </c>
-      <c r="G32" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>116</v>
       </c>
       <c r="G33" t="s">
         <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G34" t="s">
         <v>114</v>
@@ -1616,15 +1891,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>114</v>
@@ -1636,15 +1911,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
         <v>114</v>
@@ -1656,113 +1931,133 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>123</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>124</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>125</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>127</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
         <v>128</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>129</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>62</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>130</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>131</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>132</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>134</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>135</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>128</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>136</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>62</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>62</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>137</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>138</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>139</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1"/>
+    <hyperlink ref="I18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/slime_tracker_bom.xlsx
+++ b/slime_tracker_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE6F1F4-E6DA-49A9-8424-CF3C270C349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1AEB97-A7AD-449C-AEE1-6A7CA29685E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="870" windowWidth="20355" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="870" windowWidth="20355" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FB1,FB2</t>
-  </si>
-  <si>
     <t>FerriteBead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +539,10 @@
   </si>
   <si>
     <t>MountingHole:ToolingHole_1.152mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FB1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IU43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1125,10 +1126,10 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" t="s">
         <v>140</v>
-      </c>
-      <c r="H9" t="s">
-        <v>141</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -1216,22 +1217,22 @@
     </row>
     <row r="14" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1483,19 +1484,19 @@
     </row>
     <row r="15" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1503,118 +1504,118 @@
     </row>
     <row r="16" spans="1:255" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>55</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
         <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="G19" t="s">
         <v>63</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>66</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
       </c>
       <c r="E20" s="4"/>
       <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
         <v>68</v>
-      </c>
-      <c r="H20" t="s">
-        <v>69</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1622,19 +1623,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
         <v>71</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" t="s">
-        <v>72</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1642,19 +1643,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
         <v>74</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>75</v>
-      </c>
-      <c r="H22" t="s">
-        <v>76</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -1662,19 +1663,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
         <v>78</v>
-      </c>
-      <c r="G23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" t="s">
-        <v>79</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1682,19 +1683,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>80</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
         <v>81</v>
-      </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1702,19 +1703,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
         <v>84</v>
-      </c>
-      <c r="G25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" t="s">
-        <v>85</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -1722,19 +1723,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
         <v>87</v>
-      </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s">
-        <v>88</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1742,19 +1743,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
         <v>90</v>
-      </c>
-      <c r="G27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" t="s">
-        <v>91</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1762,19 +1763,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>92</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
         <v>93</v>
-      </c>
-      <c r="G28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s">
-        <v>94</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -1782,19 +1783,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>95</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
         <v>96</v>
-      </c>
-      <c r="G29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" t="s">
-        <v>97</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -1802,19 +1803,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
         <v>99</v>
-      </c>
-      <c r="G30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" t="s">
-        <v>100</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -1822,19 +1823,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>101</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
         <v>102</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>103</v>
-      </c>
-      <c r="H31" t="s">
-        <v>104</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1842,19 +1843,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s">
         <v>106</v>
-      </c>
-      <c r="G32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" t="s">
-        <v>107</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -1862,45 +1863,45 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>108</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
         <v>109</v>
       </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
-      </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>111</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>112</v>
       </c>
-      <c r="G34" t="s">
-        <v>113</v>
-      </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -1908,19 +1909,19 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>114</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -1928,19 +1929,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>116</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -1948,19 +1949,19 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>118</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>119</v>
-      </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -1968,19 +1969,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>120</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>121</v>
-      </c>
       <c r="G38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -1988,105 +1989,105 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>122</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="G39" t="s">
         <v>123</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>124</v>
-      </c>
-      <c r="H39" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
         <v>126</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>127</v>
       </c>
-      <c r="E40" t="s">
-        <v>128</v>
-      </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>129</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="G41" t="s">
         <v>130</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>131</v>
-      </c>
-      <c r="H41" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>133</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" t="s">
         <v>134</v>
       </c>
-      <c r="D42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" t="s">
-        <v>135</v>
-      </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="G43" t="s">
         <v>137</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>138</v>
-      </c>
-      <c r="H43" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
